--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2022.1" sheetId="1" r:id="rId1"/>
     <sheet name="2022.2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="2022.3" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
   <si>
     <t>总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>各系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务开通系统(IBP) 戴应欣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +175,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -197,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +237,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,6 +919,265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <f>43+37</f>
+        <v>80</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>9+15</f>
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <f>2+5+13</f>
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>24+20</f>
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <f>6+7</f>
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <f>18+12</f>
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(D2:D6)</f>
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4">
+        <f>SUM(F2:F6)</f>
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM(H2:H6)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM(J2:J6)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -917,8 +1193,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>43+37</f>
-        <v>80</v>
+        <f>52+55+70</f>
+        <v>177</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -934,36 +1210,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>9+15</f>
-        <v>24</v>
+        <f>22+21+18</f>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>4+4+3</f>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <f>2+5+13</f>
-        <v>20</v>
+        <f>18+16+14</f>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -971,126 +1247,111 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1+3+2</f>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1+1+1</f>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>2+1</f>
+        <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>24+20</f>
-        <v>44</v>
+        <f>27+25+45</f>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f>6+7</f>
-        <v>13</v>
+        <f>8+13+18</f>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f>18+12</f>
-        <v>30</v>
+        <f>19+11+25</f>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2">
-        <f>1</f>
-        <v>1</v>
+        <f>1+2</f>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <f>9</f>
-        <v>9</v>
+        <f>1+4+3</f>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3">
-        <f>2</f>
-        <v>2</v>
+        <f>3+1</f>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3">
-        <f>7</f>
-        <v>7</v>
+        <f>1+1+2</f>
+        <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
-        <f>1</f>
-        <v>1</v>
+        <f>1+2</f>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
@@ -1102,69 +1363,87 @@
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4">
-        <f>SUM(D2:D6)</f>
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4">
-        <f>SUM(F2:F6)</f>
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4">
-        <f>SUM(H2:H6)</f>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(D2:D7)</f>
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM(F2:F7)</f>
+        <v>111</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM(H2:H7)</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
+        <f>SUM(J2:J7)</f>
         <v>1</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="4">
-        <f>SUM(J2:J6)</f>
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="20">
   <si>
     <t>总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>服务开通系统(IBP) 戴应欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务开通系统(IBP)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1178,7 +1182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1193,8 +1199,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>52+55+70</f>
-        <v>177</v>
+        <f>52+55+70+41</f>
+        <v>218</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1210,22 +1216,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>22+21+18</f>
-        <v>61</v>
+        <f>22+21+18+7</f>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
-        <f>4+4+3</f>
-        <v>11</v>
+        <f>4+4+3+4</f>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <f>18+16+14</f>
-        <v>48</v>
+        <f>18+16+14+3</f>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1247,15 +1253,15 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>1+3+2</f>
-        <v>6</v>
+        <f>1+3+2+1</f>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>1+1+1+1</f>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -1267,33 +1273,39 @@
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>27+25+45</f>
-        <v>97</v>
+        <f>27+25+45+29</f>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f>8+13+18</f>
-        <v>39</v>
+        <f>8+13+18+8</f>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f>19+11+25</f>
-        <v>55</v>
+        <f>19+11+25+21</f>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -1305,38 +1317,47 @@
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <f>1+4+3</f>
-        <v>8</v>
+        <f>1+4+3+2</f>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3">
-        <f>3+1</f>
-        <v>4</v>
+        <f>3+1+1</f>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3">
-        <f>1+1+2</f>
-        <v>4</v>
+        <f>1+1+2+1</f>
+        <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1363,11 +1384,17 @@
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
@@ -1416,14 +1443,14 @@
       </c>
       <c r="D8" s="4">
         <f>SUM(D2:D7)</f>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="4">
         <f>SUM(F2:F7)</f>
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>11</v>

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2022.1" sheetId="1" r:id="rId1"/>
     <sheet name="2022.2" sheetId="4" r:id="rId2"/>
     <sheet name="2022.3" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="2022.4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
   <si>
     <t>总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>服务开通系统(IBP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务开通系统(IBP) 王靖文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已退单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合资源管理系统(IRM) 王靖文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +256,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,8 +941,265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <f>43+37</f>
+        <v>80</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>9+15</f>
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <f>2+5+13</f>
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>24+20</f>
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <f>6+7</f>
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <f>18+12</f>
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(D2:D6)</f>
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4">
+        <f>SUM(F2:F6)</f>
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM(H2:H6)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM(J2:J6)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="A1:XFD1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -940,8 +1215,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>43+37</f>
-        <v>80</v>
+        <f>52+55+70+41</f>
+        <v>218</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -957,36 +1232,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>9+15</f>
-        <v>24</v>
+        <f>22+21+18+7</f>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>4+4+3+4</f>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <f>2+5+13</f>
-        <v>20</v>
+        <f>18+16+14+3</f>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -994,22 +1269,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1+3+2+1</f>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1+1+1+1</f>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>2+1</f>
+        <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -1031,29 +1306,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>24+20</f>
-        <v>44</v>
+        <f>27+25+45+29</f>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f>6+7</f>
-        <v>13</v>
+        <f>8+13+18+8</f>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f>18+12</f>
-        <v>30</v>
+        <f>19+11+25+21</f>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2">
-        <f>1</f>
-        <v>1</v>
+        <f>1+2</f>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
@@ -1068,22 +1343,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <f>9</f>
-        <v>9</v>
+        <f>1+4+3+2</f>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3">
-        <f>2</f>
-        <v>2</v>
+        <f>3+1+1</f>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3">
-        <f>7</f>
-        <v>7</v>
+        <f>1+1+2+1</f>
+        <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
@@ -1102,18 +1377,18 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
-        <f>1</f>
-        <v>1</v>
+        <f>1+2</f>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
@@ -1138,37 +1413,74 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4">
-        <f>SUM(D2:D6)</f>
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4">
-        <f>SUM(F2:F6)</f>
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4">
-        <f>SUM(H2:H6)</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="4">
-        <f>SUM(J2:J6)</f>
-        <v>2</v>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(D2:D7)</f>
+        <v>77</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM(F2:F7)</f>
+        <v>136</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM(H2:H7)</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
+        <f>SUM(J2:J7)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1178,13 +1490,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1199,8 +1509,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>52+55+70+41</f>
-        <v>218</v>
+        <f>47+51+38</f>
+        <v>136</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1216,36 +1526,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>22+21+18+7</f>
-        <v>68</v>
+        <f>8+11+2</f>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
-        <f>4+4+3+4</f>
-        <v>15</v>
+        <f>6+5+1</f>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <f>18+16+14+3</f>
-        <v>51</v>
+        <f>1+6</f>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1253,22 +1563,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>1+3+2+1</f>
-        <v>7</v>
+        <f>2+5+4</f>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <f>1+1+1+1</f>
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
         <f>2+1</f>
         <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <f>4+4</f>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -1290,28 +1600,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>27+25+45+29</f>
-        <v>126</v>
+        <f>36+24+32</f>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f>8+13+18+8</f>
-        <v>47</v>
+        <f>11+6+10</f>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f>19+11+25+21</f>
-        <v>76</v>
+        <f>24+17+21</f>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2">
-        <f>1+2</f>
+        <f>1+1+1</f>
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1327,29 +1637,29 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <f>1+4+3+2</f>
-        <v>10</v>
+        <f>1+4</f>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3">
-        <f>3+1+1</f>
-        <v>5</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3">
-        <f>1+1+2+1</f>
-        <v>5</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>13</v>
@@ -1361,25 +1671,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3">
-        <f>1+2</f>
-        <v>3</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3">
-        <f>1</f>
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
@@ -1396,39 +1706,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9">
-        <f>4</f>
-        <v>4</v>
+      <c r="B7" s="10">
+        <f>6</f>
+        <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9">
-        <f>4</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="9">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="9">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="9">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="10">
         <f>0</f>
         <v>0</v>
       </c>
@@ -1443,14 +1753,14 @@
       </c>
       <c r="D8" s="4">
         <f>SUM(D2:D7)</f>
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="4">
         <f>SUM(F2:F7)</f>
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>11</v>
@@ -1464,7 +1774,7 @@
       </c>
       <c r="J8" s="4">
         <f>SUM(J2:J7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1472,17 +1782,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2022.1" sheetId="1" r:id="rId1"/>
     <sheet name="2022.2" sheetId="4" r:id="rId2"/>
     <sheet name="2022.3" sheetId="2" r:id="rId3"/>
     <sheet name="2022.4" sheetId="5" r:id="rId4"/>
+    <sheet name="2022.5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="32">
   <si>
     <t>总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +109,42 @@
   </si>
   <si>
     <t>综合资源管理系统(IRM) 王靖文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上仿真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务开通系统(IBP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合资源管理系统(IRM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动激活系统（包含网络自动激活与业务平台激活）(AAS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务开通系统(IBP) 王靖文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务开通系统(IBP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一模型资源库(UMRD)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,8 +309,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3399"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFF3399"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1494,6 +1531,302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <f>47+51+38</f>
+        <v>136</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>8+11+2</f>
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <f>6+5+1</f>
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <f>1+6</f>
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <f>2+5+4</f>
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>36+24+32</f>
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <f>11+6+10</f>
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <f>24+17+21</f>
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <f>1+1+1</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <f>1+4</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(D2:D7)</f>
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM(F2:F7)</f>
+        <v>78</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM(H2:H7)</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
+        <f>SUM(J2:J7)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1509,8 +1842,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>47+51+38</f>
-        <v>136</v>
+        <f>48+48+41+80</f>
+        <v>217</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1526,29 +1859,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>8+11+2</f>
-        <v>21</v>
+        <f>15+12+14+14</f>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
-        <f>6+5+1</f>
-        <v>12</v>
+        <f>1+5+4+4</f>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <f>1+6</f>
-        <v>7</v>
+        <f>14+4+8+10</f>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>2+1</f>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -1563,22 +1896,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>2+5+4</f>
-        <v>11</v>
+        <f>6+3</f>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <f>2+1</f>
-        <v>3</v>
+        <f>2+2</f>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3">
-        <f>4+4</f>
-        <v>8</v>
+        <f>4+1</f>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -1600,28 +1933,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>36+24+32</f>
-        <v>92</v>
+        <f>29+22+21+45</f>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f>11+6+10</f>
-        <v>27</v>
+        <f>9+8+8+11</f>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f>24+17+21</f>
-        <v>62</v>
+        <f>18+14+12+34</f>
+        <v>78</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2">
-        <f>1+1+1</f>
+        <f>2+1</f>
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1634,32 +1967,32 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <f>2+2+2+12</f>
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <f>1+2+1+2</f>
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <f>1+4</f>
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
-        <f>4</f>
-        <v>4</v>
-      </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>1+1+10</f>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="3">
-        <f>1</f>
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>13</v>
@@ -1671,7 +2004,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3">
         <f>1</f>
@@ -1681,16 +2014,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1706,74 +2039,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7">
+        <f>2+1+2</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7">
+        <f>1+1+2</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10">
-        <f>6</f>
+      <c r="B9" s="10">
+        <f>5+6</f>
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10">
+        <f>5+6</f>
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM(D2:D9)</f>
+        <v>76</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <f>SUM(F2:F9)</f>
+        <v>133</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM(H2:H9)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="10">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="10">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="10">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <f>SUM(D2:D7)</f>
-        <v>52</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4">
-        <f>SUM(F2:F7)</f>
-        <v>78</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4">
-        <f>SUM(H2:H7)</f>
-        <v>4</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="4">
-        <f>SUM(J2:J7)</f>
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4">
+        <f>SUM(J2:J9)</f>
         <v>2</v>
       </c>
     </row>

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2022.1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="2022.3" sheetId="2" r:id="rId3"/>
     <sheet name="2022.4" sheetId="5" r:id="rId4"/>
     <sheet name="2022.5" sheetId="6" r:id="rId5"/>
+    <sheet name="2022.6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="32">
   <si>
     <t>总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1827,6 +1828,374 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <f>48+48+41+80</f>
+        <v>217</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>15+12+14+14</f>
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1+5+4+4</f>
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <f>14+4+8+10</f>
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <f>6+3</f>
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <f>2+2</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <f>4+1</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>29+22+21+45</f>
+        <v>117</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <f>9+8+8+11</f>
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <f>18+14+12+34</f>
+        <v>78</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <f>2+2+2+12</f>
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <f>1+2+1+2</f>
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <f>1+1+10</f>
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7">
+        <f>2+1+2</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7">
+        <f>1+1+2</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10">
+        <f>5+6</f>
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10">
+        <f>5+6</f>
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM(D2:D9)</f>
+        <v>76</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <f>SUM(F2:F9)</f>
+        <v>133</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM(H2:H9)</f>
+        <v>6</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4">
+        <f>SUM(J2:J9)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1841,10 +2210,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <f>48+48+41+80</f>
-        <v>217</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1858,297 +2224,177 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <f>15+12+14+14</f>
-        <v>55</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1">
-        <f>1+5+4+4</f>
-        <v>14</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
-        <f>14+4+8+10</f>
-        <v>36</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1">
-        <f>2+1</f>
-        <v>3</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <f>6+3</f>
-        <v>9</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
-        <f>2+2</f>
-        <v>4</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3">
-        <f>4+1</f>
-        <v>5</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <f>29+22+21+45</f>
-        <v>117</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
-        <f>9+8+8+11</f>
-        <v>36</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2">
-        <f>18+14+12+34</f>
-        <v>78</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2">
-        <f>2+1</f>
-        <v>3</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3">
-        <f>2+2+2+12</f>
-        <v>18</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
-        <f>1+2+1+2</f>
-        <v>6</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3">
-        <f>1+1+10</f>
-        <v>12</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3">
-        <f>1</f>
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3">
-        <f>1</f>
-        <v>1</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="6">
-        <f>1</f>
-        <v>1</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6">
-        <f>1</f>
-        <v>1</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7">
-        <f>2+1+2</f>
-        <v>5</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="7">
-        <f>1+1+2</f>
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7">
-        <f>1</f>
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10">
-        <f>5+6</f>
-        <v>11</v>
-      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="10">
-        <f>5+6</f>
-        <v>11</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="10">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="10">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="10">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
@@ -2158,31 +2404,19 @@
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4">
-        <f>SUM(D2:D9)</f>
-        <v>76</v>
-      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4">
-        <f>SUM(F2:F9)</f>
-        <v>133</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4">
-        <f>SUM(H2:H9)</f>
-        <v>6</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="4">
-        <f>SUM(J2:J9)</f>
-        <v>2</v>
-      </c>
+      <c r="J10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="32">
   <si>
     <t>总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2194,7 +2194,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2210,7 +2210,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1">
+        <f>37+72+36+52+38</f>
+        <v>235</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2224,199 +2227,278 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <f>17+26+11+17+24</f>
+        <v>95</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <f>4+7+4+8</f>
+        <v>23</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <f>10+8+11+13+15</f>
+        <v>57</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <f>3+11+1</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <f>2+7+3+1+1</f>
+        <v>14</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <f>2+1+2+1+1</f>
+        <v>7</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <f>6+1</f>
+        <v>7</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <f>13+33+19+32+12</f>
+        <v>109</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <f>6+10+4+13+3</f>
+        <v>36</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <f>7+23+15+19+9</f>
+        <v>73</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <f>2+5+2+2+1</f>
+        <v>12</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <f>5+1</f>
+        <v>6</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <f>2+2+1+1</f>
+        <v>6</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="B7" s="7">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="1" t="s">
+      <c r="B8" s="10">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="D8" s="10">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM(D2:D8)</f>
+        <v>75</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUM(F2:F8)</f>
+        <v>145</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4">
+        <f>SUM(H2:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4">
+        <f>SUM(J2:J8)</f>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eason Code Project\DatasOnTelecom\文档\其他文档\年度小结文档\2022年度每月工作总结\公式\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2022.1" sheetId="1" r:id="rId1"/>
@@ -13,13 +18,14 @@
     <sheet name="2022.4" sheetId="5" r:id="rId4"/>
     <sheet name="2022.5" sheetId="6" r:id="rId5"/>
     <sheet name="2022.6" sheetId="7" r:id="rId6"/>
+    <sheet name="2022.7" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="33">
   <si>
     <t>总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +152,10 @@
   </si>
   <si>
     <t>统一模型资源库(UMRD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,12 +328,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -365,7 +378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,7 +413,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2196,6 +2209,321 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <f>37+72+36+52+38</f>
+        <v>235</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>17+26+11+17+24</f>
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <f>4+7+4+8</f>
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <f>10+8+11+13+15</f>
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <f>3+11+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <f>2+7+3+1+1</f>
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <f>2+1+2+1+1</f>
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <f>6+1</f>
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>13+33+19+32+12</f>
+        <v>109</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <f>6+10+4+13+3</f>
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <f>7+23+15+19+9</f>
+        <v>73</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <f>2+5+2+2+1</f>
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <f>5+1</f>
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <f>2+2+1+1</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM(D2:D8)</f>
+        <v>75</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUM(F2:F8)</f>
+        <v>145</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4">
+        <f>SUM(H2:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4">
+        <f>SUM(J2:J8)</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2211,8 +2539,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>37+72+36+52+38</f>
-        <v>235</v>
+        <f>55+61</f>
+        <v>116</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2228,35 +2556,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>17+26+11+17+24</f>
-        <v>95</v>
+        <f>21+22</f>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <f>4+7+4+8</f>
-        <v>23</v>
+        <f>5+4</f>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <f>10+8+11+13+15</f>
-        <v>57</v>
+        <f>15+16</f>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1">
-        <f>3+11+1</f>
-        <v>15</v>
+        <f>1+2</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -2264,34 +2590,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>2+7+3+1+1</f>
-        <v>14</v>
+        <f>2+1</f>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <f>2+1+2+1+1</f>
-        <v>7</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3">
-        <f>6+1</f>
-        <v>7</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="3">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -2299,205 +2624,223 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>13+33+19+32+12</f>
-        <v>109</v>
+        <f>25+25</f>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f>6+10+4+13+3</f>
-        <v>36</v>
+        <f>12+7</f>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f>7+23+15+19+9</f>
-        <v>73</v>
+        <f>13+18</f>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <f>2+5+2+2+1</f>
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
-        <f>5+1</f>
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3">
-        <f>2+2+1+1</f>
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <f>3+9</f>
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <f>2+9</f>
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="3">
+        <f>2+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="7">
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <f>1+3</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <f>1+3</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="10">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <f>SUM(D2:D8)</f>
-        <v>75</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4">
-        <f>SUM(F2:F8)</f>
-        <v>145</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4">
-        <f>SUM(H2:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="4">
-        <f>SUM(J2:J8)</f>
-        <v>15</v>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM(D2:D10)</f>
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM(F2:F10)</f>
+        <v>82</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM(H2:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SUM(J2:J10)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -2524,7 +2524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -19,13 +19,18 @@
     <sheet name="2022.5" sheetId="6" r:id="rId5"/>
     <sheet name="2022.6" sheetId="7" r:id="rId6"/>
     <sheet name="2022.7" sheetId="8" r:id="rId7"/>
+    <sheet name="2022.8" sheetId="9" r:id="rId8"/>
+    <sheet name="2022.9" sheetId="10" r:id="rId9"/>
+    <sheet name="2022.10" sheetId="11" r:id="rId10"/>
+    <sheet name="2022.11" sheetId="12" r:id="rId11"/>
+    <sheet name="2022.12" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="33">
   <si>
     <t>总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -988,6 +993,773 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
@@ -2524,8 +3296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2541,8 +3313,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>55+61</f>
-        <v>116</v>
+        <f>55+61+72+62</f>
+        <v>250</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2558,33 +3330,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>21+22</f>
-        <v>43</v>
+        <f>21+22+29+25</f>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <f>5+4</f>
-        <v>9</v>
+        <f>5+4+5+9</f>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <f>15+16</f>
-        <v>31</v>
+        <f>15+16+22+15</f>
+        <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1">
-        <f>1+2</f>
-        <v>3</v>
+        <f>1+2+1+1</f>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -2592,27 +3367,30 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>2+1</f>
+        <f>2+1+2+1</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <f>1</f>
-        <v>1</v>
-      </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2626,112 +3404,148 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>25+25</f>
-        <v>50</v>
+        <f>25+25+33+26</f>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f>12+7</f>
-        <v>19</v>
+        <f>12+7+10+11</f>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f>13+18</f>
-        <v>31</v>
+        <f>13+18+23+15</f>
+        <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <f>3+9</f>
-        <v>12</v>
+        <f>3+9+6+10</f>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1+6</f>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3">
-        <f>2+9</f>
-        <v>11</v>
+        <f>2+9+6+3</f>
+        <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <f>2+1</f>
-        <v>3</v>
+        <f>2+1+1</f>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3">
-        <f>2+1</f>
-        <v>3</v>
+        <f>2+1+1</f>
+        <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -2744,7 +3558,10 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2755,11 +3572,17 @@
       <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -2772,7 +3595,10 @@
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
@@ -2783,67 +3609,601 @@
       <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="4">
+        <f>SUM(B2:B10)</f>
+        <v>250</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM(D2:D10)</f>
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM(F2:F10)</f>
+        <v>168</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM(H2:H10)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SUM(J2:J10)</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4">
-        <f>SUM(D2:D10)</f>
-        <v>30</v>
-      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4">
-        <f>SUM(F2:F10)</f>
-        <v>82</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4">
-        <f>SUM(H2:H10)</f>
-        <v>0</v>
-      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="4">
-        <f>SUM(J2:J10)</f>
+      <c r="J11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" activeTab="6"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2022.1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="34">
   <si>
     <t>总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止统计版本：2022-09-06终稿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3296,7 +3300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3704,9 +3708,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3720,7 +3724,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1">
+        <f>61+74+44+93</f>
+        <v>272</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3734,199 +3741,334 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <f>24+26+16+24</f>
+        <v>90</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <f>6+10+3+5</f>
+        <v>24</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <f>18+15+12+19</f>
+        <v>64</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <f>8+5+5</f>
+        <v>18</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <f>5+4+4</f>
+        <v>13</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <f>2+1+1</f>
+        <v>4</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <f>32+32+20+50</f>
+        <v>134</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <f>17+11+6+22</f>
+        <v>56</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <f>15+19+14+27</f>
+        <v>75</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <f>4+5+3+13</f>
+        <v>25</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <f>2+1+2+2</f>
+        <v>7</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <f>2+4+1+10</f>
+        <v>17</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <f>1+2+1</f>
+        <v>4</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <f>1+2+1</f>
+        <v>4</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
@@ -3936,19 +4078,36 @@
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4">
+        <f>SUM(D2:D10)</f>
+        <v>100</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <f>SUM(F2:F10)</f>
+        <v>165</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <f>SUM(H2:H10)</f>
+        <v>6</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <f>SUM(J2:J10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -3725,8 +3725,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>61+74+44+93</f>
-        <v>272</v>
+        <f>61+74+44+93+53</f>
+        <v>325</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3742,22 +3742,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>24+26+16+24</f>
-        <v>90</v>
+        <f>24+26+16+24+26</f>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <f>6+10+3+5</f>
-        <v>24</v>
+        <f>6+10+3+5+5</f>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <f>18+15+12+19</f>
-        <v>64</v>
+        <f>18+15+12+19+21</f>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -3779,15 +3779,15 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>8+5+5</f>
-        <v>18</v>
+        <f>8+5+5+1</f>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <f>5+4+4</f>
-        <v>13</v>
+        <f>5+4+4+1</f>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -3816,22 +3816,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>32+32+20+50</f>
-        <v>134</v>
+        <f>32+32+20+50+20</f>
+        <v>154</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f>17+11+6+22</f>
-        <v>56</v>
+        <f>17+11+6+22+7</f>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f>15+19+14+27</f>
-        <v>75</v>
+        <f>15+19+14+27+13</f>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -3890,29 +3890,29 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <f>4+5+3+13</f>
-        <v>25</v>
+        <f>4+5+3+13+6</f>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3">
-        <f>2+1+2+2</f>
-        <v>7</v>
+        <f>2+1+2+2+2</f>
+        <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3">
-        <f>2+4+1+10</f>
-        <v>17</v>
+        <f>2+4+1+10+3</f>
+        <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="3">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
@@ -4080,21 +4080,21 @@
       </c>
       <c r="D11" s="4">
         <f>SUM(D2:D10)</f>
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="4">
         <f>SUM(F2:F10)</f>
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="4">
         <f>SUM(H2:H10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>13</v>

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" activeTab="7"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2022.1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="36">
   <si>
     <t>总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,14 @@
   </si>
   <si>
     <t>截止统计版本：2022-09-06终稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止统计版本：2022-10-11终稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合资源管理系统(IRM)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3710,6 +3718,418 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <f>61+74+44+93+53</f>
+        <v>325</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>24+26+16+24+26</f>
+        <v>116</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <f>6+10+3+5+5</f>
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <f>18+15+12+19+21</f>
+        <v>85</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <f>8+5+5+1</f>
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <f>5+4+4+1</f>
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <f>2+1+1</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>32+32+20+50+20</f>
+        <v>154</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <f>17+11+6+22+7</f>
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <f>15+19+14+27+13</f>
+        <v>88</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <f>4+5+3+13+6</f>
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <f>2+1+2+2+2</f>
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <f>2+4+1+10+3</f>
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <f>1+2+1</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
+        <f>1+2+1</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM(D2:D10)</f>
+        <v>115</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM(F2:F10)</f>
+        <v>202</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM(H2:H10)</f>
+        <v>7</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SUM(J2:J10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3725,8 +4145,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>61+74+44+93+53</f>
-        <v>325</v>
+        <f>64+50+81+36</f>
+        <v>231</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3742,36 +4162,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>24+26+16+24+26</f>
-        <v>116</v>
+        <f>20+21+25</f>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <f>6+10+3+5+5</f>
+        <f>1+19+9</f>
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1">
-        <f>18+15+12+19+21</f>
-        <v>85</v>
+        <f>18+2+10</f>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>1+6</f>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -3779,22 +4199,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>8+5+5+1</f>
-        <v>19</v>
+        <f>3+4+3</f>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <f>5+4+4+1</f>
-        <v>14</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3">
-        <f>2+1+1</f>
-        <v>4</v>
+        <f>3+3+3</f>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -3807,8 +4227,8 @@
         <v>13</v>
       </c>
       <c r="J3" s="3">
-        <f>1</f>
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -3816,29 +4236,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>32+32+20+50+20</f>
-        <v>154</v>
+        <f>34+18+47+31</f>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f>17+11+6+22+7</f>
-        <v>63</v>
+        <f>17+9+19+12</f>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f>15+19+14+27+13</f>
-        <v>88</v>
+        <f>17+9+27+19</f>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2">
-        <f>2+1</f>
-        <v>3</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
@@ -3853,15 +4273,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="8">
-        <f>0</f>
-        <v>0</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8">
-        <f>0</f>
-        <v>0</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
@@ -3890,29 +4310,29 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <f>4+5+3+13+6</f>
-        <v>31</v>
+        <f>6+7+7+2</f>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3">
-        <f>2+1+2+2+2</f>
-        <v>9</v>
+        <f>5+3+2+2</f>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3">
-        <f>2+4+1+10+3</f>
-        <v>20</v>
+        <f>1+4+5</f>
+        <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="3">
-        <f>1+1</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
@@ -3964,8 +4384,8 @@
         <v>32</v>
       </c>
       <c r="B8" s="3">
-        <f>1+2+1</f>
-        <v>4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -3978,8 +4398,8 @@
         <v>9</v>
       </c>
       <c r="F8" s="3">
-        <f>1+2+1</f>
-        <v>4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
@@ -4080,289 +4500,34 @@
       </c>
       <c r="D11" s="4">
         <f>SUM(D2:D10)</f>
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="4">
         <f>SUM(F2:F10)</f>
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="4">
         <f>SUM(H2:H10)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="4">
         <f>SUM(J2:J10)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2022.1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="37">
   <si>
     <t>总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>综合资源管理系统(IRM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止统计版本：2022-11-1终稿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,9 +1011,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1023,7 +1027,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1">
+        <f>33+79+64</f>
+        <v>176</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1037,199 +1044,334 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <f>1+11+19</f>
+        <v>31</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <f>1+6</f>
+        <v>7</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <f>4+17</f>
+        <v>21</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <f>2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <f>2+1+3</f>
+        <v>6</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <f>3</f>
+        <v>3</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <f>29+56+39</f>
+        <v>124</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <f>11+23+15</f>
+        <v>49</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <f>17+31+23</f>
+        <v>71</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <f>1+2+1</f>
+        <v>4</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <f>3+6+3</f>
+        <v>12</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <f>3+3+3</f>
+        <v>9</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <f>3</f>
+        <v>3</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
@@ -1239,19 +1381,36 @@
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4">
+        <f>SUM(D2:D10)</f>
+        <v>68</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <f>SUM(F2:F10)</f>
+        <v>100</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <f>SUM(H2:H10)</f>
+        <v>6</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <f>SUM(J2:J10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4130,7 +4289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2022.1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="39">
   <si>
     <t>总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,14 @@
   </si>
   <si>
     <t>截止统计版本：2022-11-1终稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止统计版本：2022-12-6终稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止统计版本：2023-1-3终稿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,6 +1021,418 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <f>33+79+64</f>
+        <v>176</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>1+11+19</f>
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1+6</f>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <f>4+17</f>
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <f>2+1+3</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>29+56+39</f>
+        <v>124</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <f>11+23+15</f>
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <f>17+31+23</f>
+        <v>71</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <f>1+2+1</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <f>3+6+3</f>
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <f>3+3+3</f>
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM(D2:D10)</f>
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM(F2:F10)</f>
+        <v>100</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM(H2:H10)</f>
+        <v>6</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SUM(J2:J10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1028,8 +1448,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>33+79+64</f>
-        <v>176</v>
+        <f>38+83+61+57+45</f>
+        <v>284</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1045,36 +1465,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>1+11+19</f>
+        <f>5+32+23+22+14</f>
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <f>3+7+7+13+1</f>
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <f>1+6</f>
-        <v>7</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <f>4+17</f>
-        <v>21</v>
+        <f>24+15+9+13</f>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>2+1+1</f>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1">
-        <f>2</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1082,29 +1502,29 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>2+1+3</f>
-        <v>6</v>
+        <f>7+3+3+5+2</f>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1+2</f>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3">
-        <f>3</f>
-        <v>3</v>
+        <f>7+2+3+3+2</f>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="3">
-        <f>1</f>
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
@@ -1119,29 +1539,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>29+56+39</f>
-        <v>124</v>
+        <f>25+45+26+27+25</f>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f>11+23+15</f>
-        <v>49</v>
+        <f>10+20+9+16+9</f>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f>17+31+23</f>
-        <v>71</v>
+        <f>15+25+17+10+15</f>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2">
-        <f>1+2+1</f>
-        <v>4</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
@@ -1193,29 +1613,29 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <f>3+6+3</f>
-        <v>12</v>
+        <f>1+2+5+3+4</f>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3">
-        <f>3+3+3</f>
-        <v>9</v>
+        <f>1+2+2+2+1</f>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3">
-        <f>3</f>
-        <v>3</v>
+        <f>2+3+1</f>
+        <v>6</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
@@ -1230,8 +1650,8 @@
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -1244,8 +1664,8 @@
         <v>9</v>
       </c>
       <c r="F7" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -1267,7 +1687,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="3">
-        <f>2</f>
+        <f>1+1</f>
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1281,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="3">
-        <f>2</f>
+        <f>1+1</f>
         <v>2</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1383,33 +1803,33 @@
       </c>
       <c r="D11" s="4">
         <f>SUM(D2:D10)</f>
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="4">
         <f>SUM(F2:F10)</f>
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="4">
         <f>SUM(H2:H10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="4">
         <f>SUM(J2:J10)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1419,9 +1839,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1451,199 +1871,334 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="I10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
@@ -1653,276 +2208,36 @@
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4">
+        <f>SUM(D2:D10)</f>
+        <v>0</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <f>SUM(F2:F10)</f>
+        <v>0</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <f>SUM(H2:H10)</f>
+        <v>0</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <f>SUM(J2:J10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
+++ b/文档/其他文档/年度小结文档/2022年度每月工作总结/公式/需求统计数据汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="2022.1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截止统计版本：2023-1-3终稿</t>
+    <t>截止统计版本：2023-1-3终稿
+（统计截至2022.12.29,2023年不再统计！）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,6 +1437,416 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <f>38+83+61+57+45</f>
+        <v>284</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>5+32+23+22+14</f>
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <f>3+7+7+13+1</f>
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <f>24+15+9+13</f>
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <f>2+1+1</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <f>7+3+3+5+2</f>
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <f>7+2+3+3+2</f>
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>25+45+26+27+25</f>
+        <v>148</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <f>10+20+9+16+9</f>
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <f>15+25+17+10+15</f>
+        <v>82</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <f>1+2+5+3+4</f>
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <f>1+2+2+2+1</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <f>2+3+1</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM(D2:D10)</f>
+        <v>107</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM(F2:F10)</f>
+        <v>170</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM(H2:H10)</f>
+        <v>7</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SUM(J2:J10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1448,8 +1862,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>38+83+61+57+45</f>
-        <v>284</v>
+        <f>39+42+80+40</f>
+        <v>201</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1465,29 +1879,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>5+32+23+22+14</f>
-        <v>96</v>
+        <f>9+14+10+2</f>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <f>3+7+7+13+1</f>
-        <v>31</v>
+        <f>1+5+2+1</f>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <f>24+15+9+13</f>
-        <v>61</v>
+        <f>8+9+8+1</f>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1">
-        <f>2+1+1</f>
-        <v>4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -1502,22 +1916,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>7+3+3+5+2</f>
-        <v>20</v>
+        <f>6+2+4</f>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <f>1+2</f>
-        <v>3</v>
+        <f>1+4</f>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3">
-        <f>7+2+3+3+2</f>
-        <v>17</v>
+        <f>5+2</f>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -1539,29 +1953,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>25+45+26+27+25</f>
-        <v>148</v>
+        <f>22+25+57+38</f>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f>10+20+9+16+9</f>
-        <v>64</v>
+        <f>11+15+34+14</f>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f>15+25+17+10+15</f>
-        <v>82</v>
+        <f>10+10+22+23</f>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1+1</f>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
@@ -1613,29 +2027,29 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <f>1+2+5+3+4</f>
-        <v>15</v>
+        <f>2+1+8</f>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3">
-        <f>1+2+2+2+1</f>
-        <v>8</v>
+        <f>2+4</f>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3">
-        <f>2+3+1</f>
-        <v>6</v>
+        <f>1+3</f>
+        <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="3">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
@@ -1650,8 +2064,8 @@
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <f>2</f>
-        <v>2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -1664,8 +2078,8 @@
         <v>9</v>
       </c>
       <c r="F7" s="3">
-        <f>2</f>
-        <v>2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -1687,8 +2101,8 @@
         <v>32</v>
       </c>
       <c r="B8" s="3">
-        <f>1+1</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1701,8 +2115,8 @@
         <v>9</v>
       </c>
       <c r="F8" s="3">
-        <f>1+1</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
@@ -1724,15 +2138,15 @@
         <v>14</v>
       </c>
       <c r="B9" s="6">
-        <f>1</f>
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6">
-        <f>1</f>
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>9</v>
@@ -1803,21 +2217,21 @@
       </c>
       <c r="D11" s="4">
         <f>SUM(D2:D10)</f>
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="4">
         <f>SUM(F2:F10)</f>
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="4">
         <f>SUM(H2:H10)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>13</v>
@@ -1827,415 +2241,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="5">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4">
-        <f>SUM(D2:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4">
-        <f>SUM(F2:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="4">
-        <f>SUM(H2:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="4">
-        <f>SUM(J2:J10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G13" t="s">
+    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="G13" s="12" t="s">
         <v>38</v>
       </c>
     </row>
